--- a/data/ping.xlsx
+++ b/data/ping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="iscsi_ping" sheetId="12" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,14 +49,206 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ping -t iscsi -l 1 -p 1 -i 192.168.1.1 -c 5</t>
-  </si>
-  <si>
-    <t>ping -t mgmt -i 192.168.1.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t fc -l 1 -p 1 -d WWPN -i 26-03-00-01-55-60-01-0e</t>
+    <t>ping of iscsi type by port 1 should pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping of iscsi type by port 2 should pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t mgmt -i 10.84.2.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t iscsi -l 1 -p 1 -i 10.84.2.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ping succeeded</t>
+  </si>
+  <si>
+    <t>Ping succeeded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t mgmt -p 1 -i 10.84.2.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping of mgmt type should pass by default port</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping of mgmt type should pass by port 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping of mgmt type should pass by port 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>packet count is 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t mgmt -i 10.84.2.99 -c 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t mgmt -p 2 -i 10.84.2.99 -c 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t mgmt -p 2 -i 10.84.2.99 -c 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t mgmt -i 10.84.2.99 -c 50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>packet count is 20(65534)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>packet count is 50(65535)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t iscsi -l 1 -p 2 -i 10.84.2.99 -c 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t fc -l 1 -p 3 -d WWPN -i 26-02-00-01-55-00-00-00</t>
+  </si>
+  <si>
+    <t>ping test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t iscsi -l test -p 1 -i 10.84.2.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t iscsi -l 2 -p test -i 10.84.2.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t mgmt test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t mgmt -p test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t fc test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t fc -l 1 -p 3 -d WWPN test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t iscsi -l 3 -p 1 -i 10.84.2.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t iscsi -l 2 -p 3 -i 10.84.2.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t iscsi -l 2 -p 5 -i 10.84.2.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting 5 (1,2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t fc -l 1 -p 3 -d FCID -i 0x010b00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ping should be successed when destination type is WWPN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ping should be successed when destination type is FCID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t iscsi -l 2 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t iscsi -l 2 -p 3 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t mgmt -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t mgmt -p 2 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t fc -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t fc -l 1 -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ping -t iscsi -l </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ping -t iscsi -l 2 -p </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t mgmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ping -t mgmt -p </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t fc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t fc -l 1 -p 3 -d WWPN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ping -t iscsi -l 2 -p 1 -i </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -403,16 +595,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="48.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.125" customWidth="1"/>
+    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
@@ -431,7 +623,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -443,17 +646,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.875" customWidth="1"/>
+    <col min="2" max="2" width="48.875" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -471,7 +674,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -483,17 +747,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="57.375" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -511,7 +775,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -523,15 +804,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="61.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -545,13 +826,92 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -561,15 +921,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -582,13 +942,60 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="1"/>
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -598,10 +1005,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -619,8 +1026,75 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B2" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data/ping.xlsx
+++ b/data/ping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884"/>
   </bookViews>
   <sheets>
     <sheet name="iscsi_ping" sheetId="12" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,22 +49,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ping of iscsi type by port 1 should pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping of iscsi type by port 2 should pass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ping -t mgmt -i 10.84.2.99</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ping -t iscsi -l 1 -p 1 -i 10.84.2.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ping succeeded</t>
   </si>
   <si>
@@ -116,13 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ping -t iscsi -l 1 -p 2 -i 10.84.2.99 -c 20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t fc -l 1 -p 3 -d WWPN -i 26-02-00-01-55-00-00-00</t>
-  </si>
-  <si>
     <t>ping test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -131,14 +112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ping -t iscsi -l test -p 1 -i 10.84.2.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t iscsi -l 2 -p test -i 10.84.2.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ping -t mgmt test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -155,26 +128,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ping -t iscsi -l 3 -p 1 -i 10.84.2.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t iscsi -l 2 -p 3 -i 10.84.2.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t iscsi -l 2 -p 5 -i 10.84.2.99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invalid setting 5 (1,2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ping -t fc -l 1 -p 3 -d FCID -i 0x010b00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ping should be successed when destination type is WWPN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -248,6 +201,44 @@
   </si>
   <si>
     <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t iscsi -p 0 -i 10.84.2.99 -c 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t fc -l 2 -p 3 -d WWPN -i 26-02-00-01-55-00-00-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t fc -l 2 -p 3 -d FCID -i 0x010b00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t iscsi -p 0 -i 10.84.2.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t iscsi -p test -i 10.84.2.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ping -t iscsi -p 5 -i 10.84.2.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Operation failed as the portal id specified is invalid</t>
+  </si>
+  <si>
+    <t>ping -t iscsi -p 32 -i 10.84.2.99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(0,31)</t>
+  </si>
+  <si>
+    <t>ping of iscsi type by portal 0 should pass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,15 +588,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="45.125" customWidth="1"/>
     <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
@@ -623,17 +614,23 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -674,68 +671,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -750,7 +747,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -775,24 +772,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -804,20 +801,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="61.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -825,91 +822,78 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>35</v>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>31</v>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" t="s">
         <v>1</v>
       </c>
     </row>
@@ -943,7 +927,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -951,7 +935,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -959,7 +943,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
@@ -967,7 +951,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -975,7 +959,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -983,7 +967,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -991,7 +975,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
@@ -1007,8 +991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1027,7 +1011,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -1035,7 +1019,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -1043,7 +1027,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -1051,7 +1035,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -1059,7 +1043,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -1067,7 +1051,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1075,7 +1059,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1083,7 +1067,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
@@ -1091,10 +1075,10 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/data/ping.xlsx
+++ b/data/ping.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980" tabRatio="884" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="iscsi_ping" sheetId="12" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="58">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -239,6 +239,14 @@
   </si>
   <si>
     <t>ping of iscsi type by portal 0 should pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -801,60 +809,75 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="61.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>50</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -862,38 +885,53 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>24</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -905,79 +943,104 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="45" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
+    <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>31</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -989,96 +1052,127 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="19.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>38</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>39</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>44</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>41</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
